--- a/biology/Botanique/Hymenophyllum_jamesonii/Hymenophyllum_jamesonii.xlsx
+++ b/biology/Botanique/Hymenophyllum_jamesonii/Hymenophyllum_jamesonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum jamesonii est une fougère de la famille des Hyménophyllacées originaire d'Amérique du sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce a les caractéristiques suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce a les caractéristiques suivantes :
 son rhizome est long, filiforme et abondamment pileux ;
 les frondes, de trente centimètres de long sur deux centimètres de large, comportent un limbe oblongue ou lancéolé-oblongue, divisé une fois ; elles sont pendantes et flexibles ;
 le pétiole est non ailé ;
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, plutôt épiphyte de forêts pluviales, est présente en Amérique du Sud : Colombie, Équateur, Venezuela.
 </t>
@@ -579,13 +595,15 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce est décrite une première fois par William Jackson Hooker en 1844 à partir d'un exemplaire recueilli en Équateur par William Jameson (1796-1873), botaniste britannique et à qui cette espèce est dédiée[2].
-En 1849, Karel Bořivoj Presl la place dans le genre Dermatophlebium : Dermatophlebium jamesonii (Hook.) C.Presl[3].
-En 1938, Edwin Bingham Copeland la place dans le genre Buesia : Buesia jamesonii (Hook.) Copel.[4].
-En 1968, Conrad Vernon Morton la replace dans le genre Hymenophyllum, sous-genre Hymenophyllum, section Buesia[5].
-Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la conservent dans les mêmes genre et sous-genre, la section disparaissant[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette espèce est décrite une première fois par William Jackson Hooker en 1844 à partir d'un exemplaire recueilli en Équateur par William Jameson (1796-1873), botaniste britannique et à qui cette espèce est dédiée.
+En 1849, Karel Bořivoj Presl la place dans le genre Dermatophlebium : Dermatophlebium jamesonii (Hook.) C.Presl.
+En 1938, Edwin Bingham Copeland la place dans le genre Buesia : Buesia jamesonii (Hook.) Copel..
+En 1968, Conrad Vernon Morton la replace dans le genre Hymenophyllum, sous-genre Hymenophyllum, section Buesia.
+Enfin, en 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito la conservent dans les mêmes genre et sous-genre, la section disparaissant.
 Hymenophyllum jamesonii appartient au sous-genre Hymenophyllum.
 Elle compte les synonymes suivants :
 Buesia jamesonii (Hook.) Copel.
